--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keshav Srivastava\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keshav Srivastava\eclipse-workspace\testing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA2B403-BB2C-4F2B-8C7D-B30A41FAB427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D269935-B336-462F-A884-E03CD73B005C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <t>keshavs@advantageclub.co</t>
   </si>
   <si>
-    <t>Keshav@456</t>
+    <t>Keshav@4567777</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keshav Srivastava\eclipse-workspace\testing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D269935-B336-462F-A884-E03CD73B005C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B18B02-4EEB-4D0A-9BF6-5F77E5E7BB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <t>keshavs@advantageclub.co</t>
   </si>
   <si>
-    <t>Keshav@4567777</t>
+    <t>Keshav@456</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keshav Srivastava\eclipse-workspace\testing\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B18B02-4EEB-4D0A-9BF6-5F77E5E7BB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1F0B22-B256-40BE-B0E6-8C5779296F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,10 +28,10 @@
     <t>password</t>
   </si>
   <si>
-    <t>keshavs@advantageclub.co</t>
+    <t>lukecooper@yopmail.com</t>
   </si>
   <si>
-    <t>Keshav@456</t>
+    <t>Advantage!01</t>
   </si>
 </sst>
 </file>
@@ -390,8 +390,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -413,7 +413,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{D29395CB-BAAB-45B9-801F-0AB58CF28633}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{E25E28C8-445F-42C1-BC0E-8F4FE1F4FD16}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
